--- a/Lab 8 og 11 - lysets hastighed/lab 8.xlsx
+++ b/Lab 8 og 11 - lysets hastighed/lab 8.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3b4cf22aa3470f28/Documents/GitHub/MekRelLab/Lab 8 og 11 - lysets hastighed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{B80E73BB-C17B-4E9C-B3F9-643A8A4C6928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518AED58-63BF-4381-9448-8657CFFF4D30}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{B80E73BB-C17B-4E9C-B3F9-643A8A4C6928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D0BFEF8-5B3B-4544-83EA-7A7BDAAE5B18}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8C0F1A44-EBC3-46FE-B9BC-F6150C96424D}"/>
   </bookViews>
   <sheets>
-    <sheet name="d = 67.5 +- 0.5 cm" sheetId="1" r:id="rId1"/>
-    <sheet name="d = (286 +- 0.5) cm" sheetId="2" r:id="rId2"/>
+    <sheet name="d (cm) med usikkerhed" sheetId="3" r:id="rId1"/>
+    <sheet name="d = (67.5 +- 0.5) cm" sheetId="1" r:id="rId2"/>
+    <sheet name="d = (286 +- 0.5) cm" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>DT [ns]</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>usikkerhed</t>
   </si>
 </sst>
 </file>
@@ -390,11 +397,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53DA713-B390-4820-9C58-B624D3E9B870}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2.86</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA95232-B3A3-4C14-B03A-E63CF487277F}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -559,7 +605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36185ED9-B0E9-41E5-823D-5FE719ED09C3}">
   <dimension ref="A1:A31"/>
   <sheetViews>
